--- a/Code/Results/Cases/Case_4_188/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_188/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.58625250067638</v>
+        <v>1.457486347212352</v>
       </c>
       <c r="C2">
-        <v>0.3251880438621129</v>
+        <v>0.1444092747045715</v>
       </c>
       <c r="D2">
-        <v>0.1865707514762107</v>
+        <v>0.0761708349506165</v>
       </c>
       <c r="E2">
-        <v>0.01028071231107086</v>
+        <v>0.03034151283318853</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008506745969990847</v>
+        <v>0.002622539093792955</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.783460453383256</v>
+        <v>2.550472602129958</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.829907970598356</v>
+        <v>1.416355803092387</v>
       </c>
       <c r="L2">
-        <v>0.1782050801421988</v>
+        <v>0.2380638193812388</v>
       </c>
       <c r="M2">
-        <v>0.3169515984091404</v>
+        <v>0.3287198858151115</v>
       </c>
       <c r="N2">
-        <v>2.896417506984818</v>
+        <v>4.303466944968847</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.399355143616077</v>
+        <v>1.419144728633569</v>
       </c>
       <c r="C3">
-        <v>0.2817866126535762</v>
+        <v>0.1330234071336918</v>
       </c>
       <c r="D3">
-        <v>0.1612642555268451</v>
+        <v>0.06945171253869376</v>
       </c>
       <c r="E3">
-        <v>0.0102027793177315</v>
+        <v>0.03040163909198768</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.000858578762946228</v>
+        <v>0.002627427494280126</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.698021568228199</v>
+        <v>2.533809843593133</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.606198843725394</v>
+        <v>1.36688427237155</v>
       </c>
       <c r="L3">
-        <v>0.1625008619219841</v>
+        <v>0.2353324112451105</v>
       </c>
       <c r="M3">
-        <v>0.2819868993615913</v>
+        <v>0.3218263764707565</v>
       </c>
       <c r="N3">
-        <v>2.853611877971346</v>
+        <v>4.291761579579301</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.286954971035158</v>
+        <v>1.396505353097922</v>
       </c>
       <c r="C4">
-        <v>0.2556541744182255</v>
+        <v>0.1261117126981617</v>
       </c>
       <c r="D4">
-        <v>0.1459752367952944</v>
+        <v>0.06536671740104794</v>
       </c>
       <c r="E4">
-        <v>0.01016109643358187</v>
+        <v>0.03044274976307659</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008635700553791377</v>
+        <v>0.002630587460974521</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.647802141350567</v>
+        <v>2.524388391056462</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.471607884095931</v>
+        <v>1.337402948019502</v>
       </c>
       <c r="L4">
-        <v>0.1531170869300951</v>
+        <v>0.2337702712474226</v>
       </c>
       <c r="M4">
-        <v>0.260992091058089</v>
+        <v>0.3177845164548003</v>
       </c>
       <c r="N4">
-        <v>2.829711074170604</v>
+        <v>4.285322170794245</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.241682322045307</v>
+        <v>1.387506299295325</v>
       </c>
       <c r="C5">
-        <v>0.245118173393081</v>
+        <v>0.123314831707205</v>
       </c>
       <c r="D5">
-        <v>0.139799310550643</v>
+        <v>0.06371213979205947</v>
       </c>
       <c r="E5">
-        <v>0.01014557546738781</v>
+        <v>0.03046055942131409</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008656400719788685</v>
+        <v>0.002631915154110536</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.627859522382309</v>
+        <v>2.520752427417818</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.417380791299507</v>
+        <v>1.325613394670199</v>
       </c>
       <c r="L5">
-        <v>0.1493527849615788</v>
+        <v>0.2331625906580115</v>
       </c>
       <c r="M5">
-        <v>0.2525441076509409</v>
+        <v>0.3161853604115628</v>
       </c>
       <c r="N5">
-        <v>2.820534040705226</v>
+        <v>4.282885761800543</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.234195227744976</v>
+        <v>1.386025696197123</v>
       </c>
       <c r="C6">
-        <v>0.2433750526861047</v>
+        <v>0.1228515939450858</v>
       </c>
       <c r="D6">
-        <v>0.1387768642455143</v>
+        <v>0.06343800468570748</v>
       </c>
       <c r="E6">
-        <v>0.01014308437561051</v>
+        <v>0.03046358059629384</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008659860088849891</v>
+        <v>0.002632138035315136</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.624578460885175</v>
+        <v>2.520160954494116</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.408411744477064</v>
+        <v>1.323669280477787</v>
       </c>
       <c r="L6">
-        <v>0.1487311789693564</v>
+        <v>0.2330634314571256</v>
       </c>
       <c r="M6">
-        <v>0.2511475025128078</v>
+        <v>0.3159227158218627</v>
       </c>
       <c r="N6">
-        <v>2.819043181978699</v>
+        <v>4.282492525419869</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.286342334200185</v>
+        <v>1.396383071269412</v>
       </c>
       <c r="C7">
-        <v>0.2555116449961474</v>
+        <v>0.1260739135743734</v>
       </c>
       <c r="D7">
-        <v>0.1458917359433087</v>
+        <v>0.06534436247537201</v>
       </c>
       <c r="E7">
-        <v>0.0101608812869558</v>
+        <v>0.0304429856683055</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008635978246271772</v>
+        <v>0.002630605204568255</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.647531125969977</v>
+        <v>2.524338532099691</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.470874145291759</v>
+        <v>1.33724304245186</v>
       </c>
       <c r="L7">
-        <v>0.153066085496782</v>
+        <v>0.2337619588246724</v>
       </c>
       <c r="M7">
-        <v>0.2608777376679292</v>
+        <v>0.3177627556419793</v>
       </c>
       <c r="N7">
-        <v>2.82958507686476</v>
+        <v>4.285288552987851</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.521283170000345</v>
+        <v>1.444078652267592</v>
       </c>
       <c r="C8">
-        <v>0.3101056532839834</v>
+        <v>0.1404668234505948</v>
       </c>
       <c r="D8">
-        <v>0.1777881933915211</v>
+        <v>0.07384559119533662</v>
       </c>
       <c r="E8">
-        <v>0.01025250605381167</v>
+        <v>0.030361375540916</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008533721005443518</v>
+        <v>0.002624191804137962</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.753510337781734</v>
+        <v>2.544559122056711</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.752151016791032</v>
+        <v>1.399112017461135</v>
       </c>
       <c r="L8">
-        <v>0.1727332061054412</v>
+        <v>0.2370981676364536</v>
       </c>
       <c r="M8">
-        <v>0.304790235930426</v>
+        <v>0.3263033796569559</v>
       </c>
       <c r="N8">
-        <v>2.881141020800683</v>
+        <v>4.299275541164718</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.003719703162972</v>
+        <v>1.544790525173596</v>
       </c>
       <c r="C9">
-        <v>0.4220883003255267</v>
+        <v>0.1693328293615934</v>
       </c>
       <c r="D9">
-        <v>0.2427218299280298</v>
+        <v>0.09084433753359633</v>
       </c>
       <c r="E9">
-        <v>0.01048555806148066</v>
+        <v>0.03023450723004872</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.000834351418655164</v>
+        <v>0.002612866450542865</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.981153111869929</v>
+        <v>2.590648948768631</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.32947017554693</v>
+        <v>1.527568221164387</v>
       </c>
       <c r="L9">
-        <v>0.2136194566316476</v>
+        <v>0.2445533730668075</v>
       </c>
       <c r="M9">
-        <v>0.3952329525119609</v>
+        <v>0.344568477994379</v>
       </c>
       <c r="N9">
-        <v>3.002939067313463</v>
+        <v>4.332654761678896</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.376089919204446</v>
+        <v>1.623199401975853</v>
       </c>
       <c r="C10">
-        <v>0.5086502935910744</v>
+        <v>0.1909514162072696</v>
       </c>
       <c r="D10">
-        <v>0.2925109828380954</v>
+        <v>0.1035427139092775</v>
       </c>
       <c r="E10">
-        <v>0.01069649059636069</v>
+        <v>0.03016139071773161</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008209081362302472</v>
+        <v>0.002605300029615422</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.163639998450762</v>
+        <v>2.628460987120661</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.775166823553491</v>
+        <v>1.626353006579393</v>
       </c>
       <c r="L10">
-        <v>0.2454834130711703</v>
+        <v>0.2505893241053059</v>
       </c>
       <c r="M10">
-        <v>0.4652054743577239</v>
+        <v>0.3589190935674509</v>
       </c>
       <c r="N10">
-        <v>3.107819807752378</v>
+        <v>4.360835820295534</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.550568092156993</v>
+        <v>1.659837567164971</v>
       </c>
       <c r="C11">
-        <v>0.5492889492621771</v>
+        <v>0.2008798557406237</v>
       </c>
       <c r="D11">
-        <v>0.3157723813885411</v>
+        <v>0.1093671465495731</v>
       </c>
       <c r="E11">
-        <v>0.01080300101274378</v>
+        <v>0.03013246582046891</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008148832947407117</v>
+        <v>0.002602019845882271</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.250766574725787</v>
+        <v>2.646526339628309</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.984086478314339</v>
+        <v>1.672263948128204</v>
       </c>
       <c r="L11">
-        <v>0.2604789256504745</v>
+        <v>0.2534570596076549</v>
       </c>
       <c r="M11">
-        <v>0.4980265169371236</v>
+        <v>0.3656513301165347</v>
       </c>
       <c r="N11">
-        <v>3.159581363919841</v>
+        <v>4.374457050637602</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.617481492209777</v>
+        <v>1.673851451905307</v>
       </c>
       <c r="C12">
-        <v>0.5648903442123014</v>
+        <v>0.2046533323395465</v>
       </c>
       <c r="D12">
-        <v>0.3246838581980427</v>
+        <v>0.1115797393034086</v>
       </c>
       <c r="E12">
-        <v>0.01084504397442032</v>
+        <v>0.0301221342131992</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008126125804361905</v>
+        <v>0.002600800856654246</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.284426209704321</v>
+        <v>2.653491908810693</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.064226428194843</v>
+        <v>1.68979008448531</v>
       </c>
       <c r="L12">
-        <v>0.2662390248458451</v>
+        <v>0.2545605585720239</v>
       </c>
       <c r="M12">
-        <v>0.5106184380027869</v>
+        <v>0.3682300874535613</v>
       </c>
       <c r="N12">
-        <v>3.179831654734159</v>
+        <v>4.379730782527275</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.603031122309687</v>
+        <v>1.670827086895372</v>
       </c>
       <c r="C13">
-        <v>0.5615203210258528</v>
+        <v>0.2038400289049775</v>
       </c>
       <c r="D13">
-        <v>0.3227597804211939</v>
+        <v>0.111102904295592</v>
       </c>
       <c r="E13">
-        <v>0.01083590984403848</v>
+        <v>0.03012433169273354</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008131011794929638</v>
+        <v>0.002601062360275237</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.277146057323918</v>
+        <v>2.651986201771365</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.04691879799185</v>
+        <v>1.686009250146242</v>
       </c>
       <c r="L13">
-        <v>0.2649946883789198</v>
+        <v>0.2543221195701477</v>
       </c>
       <c r="M13">
-        <v>0.5078989199814856</v>
+        <v>0.3676733971140109</v>
       </c>
       <c r="N13">
-        <v>3.175440363191569</v>
+        <v>4.378589839058407</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.556055533664505</v>
+        <v>1.660987693718255</v>
       </c>
       <c r="C14">
-        <v>0.5505680365051546</v>
+        <v>0.201190023962539</v>
       </c>
       <c r="D14">
-        <v>0.3165033804180126</v>
+        <v>0.1095490367635392</v>
       </c>
       <c r="E14">
-        <v>0.01080642443832858</v>
+        <v>0.03013160338542331</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008146962798121699</v>
+        <v>0.00260191909585465</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.253521948031761</v>
+        <v>2.647096902016528</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.99065820741481</v>
+        <v>1.673703010785459</v>
       </c>
       <c r="L14">
-        <v>0.2609511173082097</v>
+        <v>0.2535474933274173</v>
       </c>
       <c r="M14">
-        <v>0.4990590604187162</v>
+        <v>0.3658628963495829</v>
       </c>
       <c r="N14">
-        <v>3.161233942841221</v>
+        <v>4.374888603216675</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.527394842130889</v>
+        <v>1.654978999859452</v>
       </c>
       <c r="C15">
-        <v>0.5438880967640216</v>
+        <v>0.1995686236073766</v>
       </c>
       <c r="D15">
-        <v>0.3126850253704845</v>
+        <v>0.108598164125624</v>
       </c>
       <c r="E15">
-        <v>0.0107885926508704</v>
+        <v>0.0301361384052381</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008156746549557823</v>
+        <v>0.002602446881357935</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.239140710706394</v>
+        <v>2.644118302072911</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.95633508689383</v>
+        <v>1.666183423089478</v>
       </c>
       <c r="L15">
-        <v>0.258485248748002</v>
+        <v>0.2530752983014821</v>
       </c>
       <c r="M15">
-        <v>0.4936663208070868</v>
+        <v>0.3647577436536906</v>
       </c>
       <c r="N15">
-        <v>3.152618779962637</v>
+        <v>4.372636564985044</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.364798887908819</v>
+        <v>1.620824554468527</v>
       </c>
       <c r="C16">
-        <v>0.5060224094104058</v>
+        <v>0.1903044845678608</v>
       </c>
       <c r="D16">
-        <v>0.2910043447631381</v>
+        <v>0.1031630473383558</v>
       </c>
       <c r="E16">
-        <v>0.01068975802938521</v>
+        <v>0.03016336811770737</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008213035087468573</v>
+        <v>0.002605517642984498</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.158035063592493</v>
+        <v>2.627297794832074</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.761649131730621</v>
+        <v>1.623372262908134</v>
       </c>
       <c r="L16">
-        <v>0.2445142923971702</v>
+        <v>0.25040436592775</v>
       </c>
       <c r="M16">
-        <v>0.4630822006311135</v>
+        <v>0.3584832375914146</v>
       </c>
       <c r="N16">
-        <v>3.1045241129857</v>
+        <v>4.359961804416798</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.266428999674361</v>
+        <v>1.60012050797269</v>
       </c>
       <c r="C17">
-        <v>0.4831369865103738</v>
+        <v>0.1846455111441117</v>
       </c>
       <c r="D17">
-        <v>0.2778707681269452</v>
+        <v>0.09984112806444045</v>
       </c>
       <c r="E17">
-        <v>0.01063195719471821</v>
+        <v>0.03018118188145147</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008247782948207494</v>
+        <v>0.002607442812847975</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.109383537092384</v>
+        <v>2.617200581958627</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.643889999849989</v>
+        <v>1.597358773057749</v>
       </c>
       <c r="L17">
-        <v>0.2360782757708932</v>
+        <v>0.2487970791449072</v>
       </c>
       <c r="M17">
-        <v>0.4445875840531315</v>
+        <v>0.3546863407026351</v>
       </c>
       <c r="N17">
-        <v>3.076102197197059</v>
+        <v>4.352391828143084</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.210320507449921</v>
+        <v>1.588303325183119</v>
       </c>
       <c r="C18">
-        <v>0.4700905341512964</v>
+        <v>0.1813994540922579</v>
       </c>
       <c r="D18">
-        <v>0.2703733063548555</v>
+        <v>0.09793494705736805</v>
       </c>
       <c r="E18">
-        <v>0.01059969216277423</v>
+        <v>0.03019183613843301</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008267855746485912</v>
+        <v>0.002608565358099805</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.08178254165793</v>
+        <v>2.611474281241669</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.576729557838945</v>
+        <v>1.582488065101245</v>
       </c>
       <c r="L18">
-        <v>0.2312725667014774</v>
+        <v>0.2478840880425963</v>
       </c>
       <c r="M18">
-        <v>0.4340417849558875</v>
+        <v>0.3525216702554275</v>
       </c>
       <c r="N18">
-        <v>3.060131502412673</v>
+        <v>4.348113196507427</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.19140089884695</v>
+        <v>1.584317888744579</v>
       </c>
       <c r="C19">
-        <v>0.4656923763762961</v>
+        <v>0.1803019041643665</v>
       </c>
       <c r="D19">
-        <v>0.2678440941285345</v>
+        <v>0.09729031595773563</v>
       </c>
       <c r="E19">
-        <v>0.01058893080708323</v>
+        <v>0.03019551366373463</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008274667598961514</v>
+        <v>0.00260894805357053</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.072500786587952</v>
+        <v>2.609549416885415</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.554084357264372</v>
+        <v>1.57746880369794</v>
       </c>
       <c r="L19">
-        <v>0.229653139593637</v>
+        <v>0.2475769358688638</v>
       </c>
       <c r="M19">
-        <v>0.4304863292368211</v>
+        <v>0.3517920465760795</v>
       </c>
       <c r="N19">
-        <v>3.054786912934276</v>
+        <v>4.34667746618004</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.276851104312414</v>
+        <v>1.602315043649071</v>
       </c>
       <c r="C20">
-        <v>0.4855608942938545</v>
+        <v>0.1852470022115824</v>
       </c>
       <c r="D20">
-        <v>0.2792628970824325</v>
+        <v>0.1001942855205016</v>
       </c>
       <c r="E20">
-        <v>0.01063800742127796</v>
+        <v>0.03017924333705801</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008244075156354897</v>
+        <v>0.002607236298871733</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.114522513977704</v>
+        <v>2.618267026055733</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.656365555195549</v>
+        <v>1.600118471934081</v>
       </c>
       <c r="L20">
-        <v>0.2369714287020344</v>
+        <v>0.2489669895710165</v>
       </c>
       <c r="M20">
-        <v>0.4465467211612477</v>
+        <v>0.3550885388666245</v>
       </c>
       <c r="N20">
-        <v>3.07908829825908</v>
+        <v>4.353189856630337</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.569829592200961</v>
+        <v>1.663873964568836</v>
       </c>
       <c r="C21">
-        <v>0.553778956176501</v>
+        <v>0.2019680181742558</v>
       </c>
       <c r="D21">
-        <v>0.3183381170751289</v>
+        <v>0.1100052541914778</v>
       </c>
       <c r="E21">
-        <v>0.01081503693318853</v>
+        <v>0.03012945065738037</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.000814227487481859</v>
+        <v>0.002601666824668447</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.260442182596037</v>
+        <v>2.64852962347328</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.007154250754979</v>
+        <v>1.677313828425895</v>
       </c>
       <c r="L21">
-        <v>0.2621365143730543</v>
+        <v>0.2537745434240293</v>
       </c>
       <c r="M21">
-        <v>0.5016509304923389</v>
+        <v>0.3663938857603526</v>
       </c>
       <c r="N21">
-        <v>3.165388518076213</v>
+        <v>4.375972603419626</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.766278962502895</v>
+        <v>1.704921366211636</v>
       </c>
       <c r="C22">
-        <v>0.5996188579854902</v>
+        <v>0.2129766866646605</v>
       </c>
       <c r="D22">
-        <v>0.3444839702329716</v>
+        <v>0.1164581861994236</v>
       </c>
       <c r="E22">
-        <v>0.01094081395415314</v>
+        <v>0.03010053071670171</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008076357390888803</v>
+        <v>0.002598161701575507</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.359736814227404</v>
+        <v>2.669034462715189</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.242476032578622</v>
+        <v>1.728585665596881</v>
       </c>
       <c r="L22">
-        <v>0.279064434461219</v>
+        <v>0.2570188583203219</v>
       </c>
       <c r="M22">
-        <v>0.5386281279195373</v>
+        <v>0.3739540109763126</v>
       </c>
       <c r="N22">
-        <v>3.225612445844547</v>
+        <v>4.391536839597507</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.660935155114885</v>
+        <v>1.682938884643647</v>
       </c>
       <c r="C23">
-        <v>0.5750270612677184</v>
+        <v>0.2070936957429126</v>
       </c>
       <c r="D23">
-        <v>0.3304684241235236</v>
+        <v>0.1130103522961576</v>
       </c>
       <c r="E23">
-        <v>0.0108726906238652</v>
+        <v>0.03011563499427528</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008111490696871593</v>
+        <v>0.002600020153612118</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.306354707061089</v>
+        <v>2.658024068535425</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.11627523432287</v>
+        <v>1.701145634033026</v>
       </c>
       <c r="L23">
-        <v>0.2699821756162493</v>
+        <v>0.2552779411680035</v>
       </c>
       <c r="M23">
-        <v>0.518796978640907</v>
+        <v>0.3699033235718403</v>
       </c>
       <c r="N23">
-        <v>3.193095868603564</v>
+        <v>4.383168069659746</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.272137890881027</v>
+        <v>1.601322626689921</v>
       </c>
       <c r="C24">
-        <v>0.4844647031327156</v>
+        <v>0.1849750451900718</v>
       </c>
       <c r="D24">
-        <v>0.2786333509576906</v>
+        <v>0.1000346117239985</v>
       </c>
       <c r="E24">
-        <v>0.01063526912081247</v>
+        <v>0.03018011846689239</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008245751149653796</v>
+        <v>0.002607329614810707</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.112198037463685</v>
+        <v>2.617784641483595</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.650723682313156</v>
+        <v>1.598870548007341</v>
       </c>
       <c r="L24">
-        <v>0.2365674970890694</v>
+        <v>0.248890138620169</v>
       </c>
       <c r="M24">
-        <v>0.4456607258315941</v>
+        <v>0.3549066483408509</v>
       </c>
       <c r="N24">
-        <v>3.077737136186983</v>
+        <v>4.352828839174833</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.870427930606667</v>
+        <v>1.516772626542149</v>
       </c>
       <c r="C25">
-        <v>0.3911423653997019</v>
+        <v>0.1614531095615632</v>
       </c>
       <c r="D25">
-        <v>0.2248391869057969</v>
+        <v>0.08620964634913264</v>
       </c>
       <c r="E25">
-        <v>0.01041611835919731</v>
+        <v>0.03026529086282626</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008393960907430843</v>
+        <v>0.002615797180367344</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.917141819401991</v>
+        <v>2.577488666917858</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.169967160184427</v>
+        <v>1.492047752186068</v>
       </c>
       <c r="L25">
-        <v>0.2022703830732411</v>
+        <v>0.2424385987592359</v>
       </c>
       <c r="M25">
-        <v>0.3702162880626361</v>
+        <v>0.3394642244096531</v>
       </c>
       <c r="N25">
-        <v>2.967504405502439</v>
+        <v>4.322984692065376</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_188/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_188/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.457486347212352</v>
+        <v>1.586252500676352</v>
       </c>
       <c r="C2">
-        <v>0.1444092747045715</v>
+        <v>0.3251880438618286</v>
       </c>
       <c r="D2">
-        <v>0.0761708349506165</v>
+        <v>0.1865707514760686</v>
       </c>
       <c r="E2">
-        <v>0.03034151283318853</v>
+        <v>0.01028071231105976</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002622539093792955</v>
+        <v>0.000850674596940368</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.550472602129958</v>
+        <v>1.783460453383256</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.416355803092387</v>
+        <v>1.829907970598214</v>
       </c>
       <c r="L2">
-        <v>0.2380638193812388</v>
+        <v>0.178205080142078</v>
       </c>
       <c r="M2">
-        <v>0.3287198858151115</v>
+        <v>0.3169515984091262</v>
       </c>
       <c r="N2">
-        <v>4.303466944968847</v>
+        <v>2.896417506984818</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.419144728633569</v>
+        <v>1.399355143615992</v>
       </c>
       <c r="C3">
-        <v>0.1330234071336918</v>
+        <v>0.2817866126533488</v>
       </c>
       <c r="D3">
-        <v>0.06945171253869376</v>
+        <v>0.1612642555268877</v>
       </c>
       <c r="E3">
-        <v>0.03040163909198768</v>
+        <v>0.01020277931770108</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002627427494280126</v>
+        <v>0.0008585787629460845</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.533809843593133</v>
+        <v>1.698021568228185</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.36688427237155</v>
+        <v>1.606198843725451</v>
       </c>
       <c r="L3">
-        <v>0.2353324112451105</v>
+        <v>0.1625008619220552</v>
       </c>
       <c r="M3">
-        <v>0.3218263764707565</v>
+        <v>0.2819868993615913</v>
       </c>
       <c r="N3">
-        <v>4.291761579579301</v>
+        <v>2.853611877971346</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.396505353097922</v>
+        <v>1.286954971035243</v>
       </c>
       <c r="C4">
-        <v>0.1261117126981617</v>
+        <v>0.2556541744186518</v>
       </c>
       <c r="D4">
-        <v>0.06536671740104794</v>
+        <v>0.1459752367953939</v>
       </c>
       <c r="E4">
-        <v>0.03044274976307659</v>
+        <v>0.01016109643362162</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002630587460974521</v>
+        <v>0.0008635700553283166</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.524388391056462</v>
+        <v>1.647802141350539</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.337402948019502</v>
+        <v>1.471607884095846</v>
       </c>
       <c r="L4">
-        <v>0.2337702712474226</v>
+        <v>0.1531170869301732</v>
       </c>
       <c r="M4">
-        <v>0.3177845164548003</v>
+        <v>0.2609920910580925</v>
       </c>
       <c r="N4">
-        <v>4.285322170794245</v>
+        <v>2.829711074170589</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.387506299295325</v>
+        <v>1.241682322045222</v>
       </c>
       <c r="C5">
-        <v>0.123314831707205</v>
+        <v>0.2451181733932231</v>
       </c>
       <c r="D5">
-        <v>0.06371213979205947</v>
+        <v>0.1397993105508277</v>
       </c>
       <c r="E5">
-        <v>0.03046055942131409</v>
+        <v>0.01014557546742267</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002631915154110536</v>
+        <v>0.0008656400720888813</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.520752427417818</v>
+        <v>1.627859522382323</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.325613394670199</v>
+        <v>1.417380791299507</v>
       </c>
       <c r="L5">
-        <v>0.2331625906580115</v>
+        <v>0.149352784961593</v>
       </c>
       <c r="M5">
-        <v>0.3161853604115628</v>
+        <v>0.2525441076509587</v>
       </c>
       <c r="N5">
-        <v>4.282885761800543</v>
+        <v>2.820534040705226</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.386025696197123</v>
+        <v>1.234195227744777</v>
       </c>
       <c r="C6">
-        <v>0.1228515939450858</v>
+        <v>0.2433750526859342</v>
       </c>
       <c r="D6">
-        <v>0.06343800468570748</v>
+        <v>0.1387768642454859</v>
       </c>
       <c r="E6">
-        <v>0.03046358059629384</v>
+        <v>0.01014308437563005</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002632138035315136</v>
+        <v>0.0008659860088212906</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.520160954494116</v>
+        <v>1.624578460885132</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.323669280477787</v>
+        <v>1.408411744477036</v>
       </c>
       <c r="L6">
-        <v>0.2330634314571256</v>
+        <v>0.1487311789693706</v>
       </c>
       <c r="M6">
-        <v>0.3159227158218627</v>
+        <v>0.2511475025127901</v>
       </c>
       <c r="N6">
-        <v>4.282492525419869</v>
+        <v>2.819043181978671</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.396383071269412</v>
+        <v>1.286342334200185</v>
       </c>
       <c r="C7">
-        <v>0.1260739135743734</v>
+        <v>0.2555116449960622</v>
       </c>
       <c r="D7">
-        <v>0.06534436247537201</v>
+        <v>0.1458917359435077</v>
       </c>
       <c r="E7">
-        <v>0.0304429856683055</v>
+        <v>0.01016088128694981</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002630605204568255</v>
+        <v>0.0008635978247371057</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.524338532099691</v>
+        <v>1.647531125969991</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.33724304245186</v>
+        <v>1.470874145291788</v>
       </c>
       <c r="L7">
-        <v>0.2337619588246724</v>
+        <v>0.1530660854969241</v>
       </c>
       <c r="M7">
-        <v>0.3177627556419793</v>
+        <v>0.260877737667947</v>
       </c>
       <c r="N7">
-        <v>4.285288552987851</v>
+        <v>2.829585076864873</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.444078652267592</v>
+        <v>1.521283170000828</v>
       </c>
       <c r="C8">
-        <v>0.1404668234505948</v>
+        <v>0.3101056532840119</v>
       </c>
       <c r="D8">
-        <v>0.07384559119533662</v>
+        <v>0.1777881933912369</v>
       </c>
       <c r="E8">
-        <v>0.030361375540916</v>
+        <v>0.01025250605383121</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002624191804137962</v>
+        <v>0.0008533721005428412</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.544559122056711</v>
+        <v>1.753510337781762</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.399112017461135</v>
+        <v>1.752151016791004</v>
       </c>
       <c r="L8">
-        <v>0.2370981676364536</v>
+        <v>0.1727332061054483</v>
       </c>
       <c r="M8">
-        <v>0.3263033796569559</v>
+        <v>0.3047902359304402</v>
       </c>
       <c r="N8">
-        <v>4.299275541164718</v>
+        <v>2.881141020800669</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.544790525173596</v>
+        <v>2.003719703162858</v>
       </c>
       <c r="C9">
-        <v>0.1693328293615934</v>
+        <v>0.4220883003255835</v>
       </c>
       <c r="D9">
-        <v>0.09084433753359633</v>
+        <v>0.2427218299279303</v>
       </c>
       <c r="E9">
-        <v>0.03023450723004872</v>
+        <v>0.01048555806148421</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002612866450542865</v>
+        <v>0.0008343514187155162</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.590648948768631</v>
+        <v>1.981153111869901</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.527568221164387</v>
+        <v>2.32947017554693</v>
       </c>
       <c r="L9">
-        <v>0.2445533730668075</v>
+        <v>0.2136194566318466</v>
       </c>
       <c r="M9">
-        <v>0.344568477994379</v>
+        <v>0.3952329525119751</v>
       </c>
       <c r="N9">
-        <v>4.332654761678896</v>
+        <v>3.002939067313491</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.623199401975853</v>
+        <v>2.376089919204674</v>
       </c>
       <c r="C10">
-        <v>0.1909514162072696</v>
+        <v>0.5086502935910744</v>
       </c>
       <c r="D10">
-        <v>0.1035427139092775</v>
+        <v>0.2925109828387207</v>
       </c>
       <c r="E10">
-        <v>0.03016139071773161</v>
+        <v>0.01069649059638911</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002605300029615422</v>
+        <v>0.0008209081362880722</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.628460987120661</v>
+        <v>2.163639998450762</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.626353006579393</v>
+        <v>2.775166823553548</v>
       </c>
       <c r="L10">
-        <v>0.2505893241053059</v>
+        <v>0.2454834130712271</v>
       </c>
       <c r="M10">
-        <v>0.3589190935674509</v>
+        <v>0.4652054743577239</v>
       </c>
       <c r="N10">
-        <v>4.360835820295534</v>
+        <v>3.107819807752378</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.659837567164971</v>
+        <v>2.550568092156936</v>
       </c>
       <c r="C11">
-        <v>0.2008798557406237</v>
+        <v>0.5492889492619497</v>
       </c>
       <c r="D11">
-        <v>0.1093671465495731</v>
+        <v>0.3157723813887827</v>
       </c>
       <c r="E11">
-        <v>0.03013246582046891</v>
+        <v>0.01080300101274778</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002602019845882271</v>
+        <v>0.0008148832946135443</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.646526339628309</v>
+        <v>2.250766574725802</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.672263948128204</v>
+        <v>2.984086478314396</v>
       </c>
       <c r="L11">
-        <v>0.2534570596076549</v>
+        <v>0.2604789256503892</v>
       </c>
       <c r="M11">
-        <v>0.3656513301165347</v>
+        <v>0.4980265169371236</v>
       </c>
       <c r="N11">
-        <v>4.374457050637602</v>
+        <v>3.15958136391987</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.673851451905307</v>
+        <v>2.61748149220989</v>
       </c>
       <c r="C12">
-        <v>0.2046533323395465</v>
+        <v>0.5648903442122446</v>
       </c>
       <c r="D12">
-        <v>0.1115797393034086</v>
+        <v>0.3246838581979858</v>
       </c>
       <c r="E12">
-        <v>0.0301221342131992</v>
+        <v>0.01084504397448116</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002600800856654246</v>
+        <v>0.0008126125803154774</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.653491908810693</v>
+        <v>2.284426209704293</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.68979008448531</v>
+        <v>3.064226428194843</v>
       </c>
       <c r="L12">
-        <v>0.2545605585720239</v>
+        <v>0.2662390248459019</v>
       </c>
       <c r="M12">
-        <v>0.3682300874535613</v>
+        <v>0.5106184380028154</v>
       </c>
       <c r="N12">
-        <v>4.379730782527275</v>
+        <v>3.179831654734159</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.670827086895372</v>
+        <v>2.603031122309631</v>
       </c>
       <c r="C13">
-        <v>0.2038400289049775</v>
+        <v>0.5615203210253412</v>
       </c>
       <c r="D13">
-        <v>0.111102904295592</v>
+        <v>0.3227597804209523</v>
       </c>
       <c r="E13">
-        <v>0.03012433169273354</v>
+        <v>0.01083590984403759</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002601062360275237</v>
+        <v>0.0008131011794350808</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.651986201771365</v>
+        <v>2.277146057323947</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.686009250146242</v>
+        <v>3.046918797991736</v>
       </c>
       <c r="L13">
-        <v>0.2543221195701477</v>
+        <v>0.2649946883788914</v>
       </c>
       <c r="M13">
-        <v>0.3676733971140109</v>
+        <v>0.5078989199814856</v>
       </c>
       <c r="N13">
-        <v>4.378589839058407</v>
+        <v>3.175440363191569</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.660987693718255</v>
+        <v>2.556055533664505</v>
       </c>
       <c r="C14">
-        <v>0.201190023962539</v>
+        <v>0.5505680365051262</v>
       </c>
       <c r="D14">
-        <v>0.1095490367635392</v>
+        <v>0.3165033804178421</v>
       </c>
       <c r="E14">
-        <v>0.03013160338542331</v>
+        <v>0.01080642443832591</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.00260191909585465</v>
+        <v>0.0008146962798699405</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.647096902016528</v>
+        <v>2.253521948031747</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.673703010785459</v>
+        <v>2.99065820741481</v>
       </c>
       <c r="L14">
-        <v>0.2535474933274173</v>
+        <v>0.2609511173080534</v>
       </c>
       <c r="M14">
-        <v>0.3658628963495829</v>
+        <v>0.4990590604187446</v>
       </c>
       <c r="N14">
-        <v>4.374888603216675</v>
+        <v>3.161233942841278</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.654978999859452</v>
+        <v>2.527394842131002</v>
       </c>
       <c r="C15">
-        <v>0.1995686236073766</v>
+        <v>0.5438880967639932</v>
       </c>
       <c r="D15">
-        <v>0.108598164125624</v>
+        <v>0.3126850253704987</v>
       </c>
       <c r="E15">
-        <v>0.0301361384052381</v>
+        <v>0.01078859265087395</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002602446881357935</v>
+        <v>0.0008156746549572436</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.644118302072911</v>
+        <v>2.23914071070638</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.666183423089478</v>
+        <v>2.95633508689383</v>
       </c>
       <c r="L15">
-        <v>0.2530752983014821</v>
+        <v>0.2584852487478173</v>
       </c>
       <c r="M15">
-        <v>0.3647577436536906</v>
+        <v>0.4936663208070868</v>
       </c>
       <c r="N15">
-        <v>4.372636564985044</v>
+        <v>3.152618779962665</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.620824554468527</v>
+        <v>2.364798887909046</v>
       </c>
       <c r="C16">
-        <v>0.1903044845678608</v>
+        <v>0.5060224094106616</v>
       </c>
       <c r="D16">
-        <v>0.1031630473383558</v>
+        <v>0.2910043447633512</v>
       </c>
       <c r="E16">
-        <v>0.03016336811770737</v>
+        <v>0.01068975802941807</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002605517642984498</v>
+        <v>0.0008213035087573517</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.627297794832074</v>
+        <v>2.158035063592493</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.623372262908134</v>
+        <v>2.761649131730564</v>
       </c>
       <c r="L16">
-        <v>0.25040436592775</v>
+        <v>0.2445142923971133</v>
       </c>
       <c r="M16">
-        <v>0.3584832375914146</v>
+        <v>0.4630822006311064</v>
       </c>
       <c r="N16">
-        <v>4.359961804416798</v>
+        <v>3.104524112985729</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.60012050797269</v>
+        <v>2.266428999674361</v>
       </c>
       <c r="C17">
-        <v>0.1846455111441117</v>
+        <v>0.4831369865103454</v>
       </c>
       <c r="D17">
-        <v>0.09984112806444045</v>
+        <v>0.2778707681270447</v>
       </c>
       <c r="E17">
-        <v>0.03018118188145147</v>
+        <v>0.01063195719470533</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002607442812847975</v>
+        <v>0.0008247782948172023</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.617200581958627</v>
+        <v>2.109383537092398</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.597358773057749</v>
+        <v>2.643889999849961</v>
       </c>
       <c r="L17">
-        <v>0.2487970791449072</v>
+        <v>0.2360782757709075</v>
       </c>
       <c r="M17">
-        <v>0.3546863407026351</v>
+        <v>0.4445875840531457</v>
       </c>
       <c r="N17">
-        <v>4.352391828143084</v>
+        <v>3.076102197197059</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.588303325183119</v>
+        <v>2.210320507449694</v>
       </c>
       <c r="C18">
-        <v>0.1813994540922579</v>
+        <v>0.470090534151268</v>
       </c>
       <c r="D18">
-        <v>0.09793494705736805</v>
+        <v>0.270373306355097</v>
       </c>
       <c r="E18">
-        <v>0.03019183613843301</v>
+        <v>0.0105996921627316</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002608565358099805</v>
+        <v>0.0008267855746522432</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.611474281241669</v>
+        <v>2.081782541657944</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.582488065101245</v>
+        <v>2.576729557838831</v>
       </c>
       <c r="L18">
-        <v>0.2478840880425963</v>
+        <v>0.2312725667015627</v>
       </c>
       <c r="M18">
-        <v>0.3525216702554275</v>
+        <v>0.4340417849558946</v>
       </c>
       <c r="N18">
-        <v>4.348113196507427</v>
+        <v>3.060131502412702</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.584317888744579</v>
+        <v>2.191400898846723</v>
       </c>
       <c r="C19">
-        <v>0.1803019041643665</v>
+        <v>0.4656923763765235</v>
       </c>
       <c r="D19">
-        <v>0.09729031595773563</v>
+        <v>0.2678440941285203</v>
       </c>
       <c r="E19">
-        <v>0.03019551366373463</v>
+        <v>0.01058893080698153</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.00260894805357053</v>
+        <v>0.0008274667598919044</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.609549416885415</v>
+        <v>2.072500786587938</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.57746880369794</v>
+        <v>2.554084357264344</v>
       </c>
       <c r="L19">
-        <v>0.2475769358688638</v>
+        <v>0.229653139593637</v>
       </c>
       <c r="M19">
-        <v>0.3517920465760795</v>
+        <v>0.4304863292368211</v>
       </c>
       <c r="N19">
-        <v>4.34667746618004</v>
+        <v>3.054786912934219</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.602315043649071</v>
+        <v>2.27685110431247</v>
       </c>
       <c r="C20">
-        <v>0.1852470022115824</v>
+        <v>0.4855608942938545</v>
       </c>
       <c r="D20">
-        <v>0.1001942855205016</v>
+        <v>0.2792628970825461</v>
       </c>
       <c r="E20">
-        <v>0.03017924333705801</v>
+        <v>0.01063800742128418</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002607236298871733</v>
+        <v>0.0008244075157046908</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.618267026055733</v>
+        <v>2.114522513977718</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.600118471934081</v>
+        <v>2.656365555195663</v>
       </c>
       <c r="L20">
-        <v>0.2489669895710165</v>
+        <v>0.2369714287020486</v>
       </c>
       <c r="M20">
-        <v>0.3550885388666245</v>
+        <v>0.4465467211612548</v>
       </c>
       <c r="N20">
-        <v>4.353189856630337</v>
+        <v>3.079088298259137</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.663873964568836</v>
+        <v>2.569829592200847</v>
       </c>
       <c r="C21">
-        <v>0.2019680181742558</v>
+        <v>0.553778956176501</v>
       </c>
       <c r="D21">
-        <v>0.1100052541914778</v>
+        <v>0.3183381170758679</v>
       </c>
       <c r="E21">
-        <v>0.03012945065738037</v>
+        <v>0.01081503693315122</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002601666824668447</v>
+        <v>0.0008142274874195805</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.64852962347328</v>
+        <v>2.260442182596051</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.677313828425895</v>
+        <v>3.007154250754922</v>
       </c>
       <c r="L21">
-        <v>0.2537745434240293</v>
+        <v>0.2621365143730117</v>
       </c>
       <c r="M21">
-        <v>0.3663938857603526</v>
+        <v>0.5016509304923389</v>
       </c>
       <c r="N21">
-        <v>4.375972603419626</v>
+        <v>3.165388518076298</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.704921366211636</v>
+        <v>2.766278962502724</v>
       </c>
       <c r="C22">
-        <v>0.2129766866646605</v>
+        <v>0.5996188579854334</v>
       </c>
       <c r="D22">
-        <v>0.1164581861994236</v>
+        <v>0.3444839702333127</v>
       </c>
       <c r="E22">
-        <v>0.03010053071670171</v>
+        <v>0.01094081395404478</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002598161701575507</v>
+        <v>0.0008076357390861217</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.669034462715189</v>
+        <v>2.359736814227418</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.728585665596881</v>
+        <v>3.242476032578509</v>
       </c>
       <c r="L22">
-        <v>0.2570188583203219</v>
+        <v>0.27906443446129</v>
       </c>
       <c r="M22">
-        <v>0.3739540109763126</v>
+        <v>0.5386281279195515</v>
       </c>
       <c r="N22">
-        <v>4.391536839597507</v>
+        <v>3.225612445844547</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.682938884643647</v>
+        <v>2.660935155114885</v>
       </c>
       <c r="C23">
-        <v>0.2070936957429126</v>
+        <v>0.5750270612679742</v>
       </c>
       <c r="D23">
-        <v>0.1130103522961576</v>
+        <v>0.3304684241233815</v>
       </c>
       <c r="E23">
-        <v>0.03011563499427528</v>
+        <v>0.01087269062386387</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002600020153612118</v>
+        <v>0.0008111490696414782</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.658024068535425</v>
+        <v>2.306354707061089</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.701145634033026</v>
+        <v>3.11627523432287</v>
       </c>
       <c r="L23">
-        <v>0.2552779411680035</v>
+        <v>0.2699821756161924</v>
       </c>
       <c r="M23">
-        <v>0.3699033235718403</v>
+        <v>0.518796978640907</v>
       </c>
       <c r="N23">
-        <v>4.383168069659746</v>
+        <v>3.193095868603564</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.601322626689921</v>
+        <v>2.272137890880799</v>
       </c>
       <c r="C24">
-        <v>0.1849750451900718</v>
+        <v>0.4844647031329714</v>
       </c>
       <c r="D24">
-        <v>0.1000346117239985</v>
+        <v>0.2786333509577048</v>
       </c>
       <c r="E24">
-        <v>0.03018011846689239</v>
+        <v>0.01063526912080848</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002607329614810707</v>
+        <v>0.0008245751149635043</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.617784641483595</v>
+        <v>2.112198037463656</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.598870548007341</v>
+        <v>2.650723682313185</v>
       </c>
       <c r="L24">
-        <v>0.248890138620169</v>
+        <v>0.2365674970891121</v>
       </c>
       <c r="M24">
-        <v>0.3549066483408509</v>
+        <v>0.4456607258315728</v>
       </c>
       <c r="N24">
-        <v>4.352828839174833</v>
+        <v>3.077737136187011</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.516772626542149</v>
+        <v>1.870427930606724</v>
       </c>
       <c r="C25">
-        <v>0.1614531095615632</v>
+        <v>0.3911423653997019</v>
       </c>
       <c r="D25">
-        <v>0.08620964634913264</v>
+        <v>0.2248391869059105</v>
       </c>
       <c r="E25">
-        <v>0.03026529086282626</v>
+        <v>0.01041611835915779</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002615797180367344</v>
+        <v>0.0008393960907387471</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.577488666917858</v>
+        <v>1.917141819401991</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.492047752186068</v>
+        <v>2.169967160184427</v>
       </c>
       <c r="L25">
-        <v>0.2424385987592359</v>
+        <v>0.2022703830731132</v>
       </c>
       <c r="M25">
-        <v>0.3394642244096531</v>
+        <v>0.3702162880626361</v>
       </c>
       <c r="N25">
-        <v>4.322984692065376</v>
+        <v>2.967504405502382</v>
       </c>
       <c r="O25">
         <v>0</v>
